--- a/TerceiroPasso/GrupoSelecionado.xlsx
+++ b/TerceiroPasso/GrupoSelecionado.xlsx
@@ -139,6 +139,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.1</t>
   </si>
   <si>
@@ -177,9 +180,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ao apertar tab o foco está sendo alterado para o campo seguinte?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
   </si>
   <si>
     <t xml:space="preserve">Após exibidas mensagens de erro a navegação está indo para a tela que contém o erro?</t>
@@ -455,14 +455,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -551,6 +543,14 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -795,7 +795,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -812,23 +812,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -836,151 +836,151 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -988,7 +988,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1004,7 +1004,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1020,35 +1020,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1064,7 +1064,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1080,7 +1080,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1088,7 +1088,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1100,7 +1100,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1112,23 +1112,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1140,7 +1140,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1156,9 +1156,9 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Hyperlink 1" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="136">
+  <dxfs count="48">
     <dxf>
       <font>
         <b val="0"/>
@@ -2061,1678 +2061,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CC00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFC3924"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="thin"/>
-        <right style="thin"/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF66"/>
         </patternFill>
       </fill>
       <border diagonalUp="false" diagonalDown="false">
@@ -3818,9 +2146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>579960</xdr:colOff>
+      <xdr:colOff>579600</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3834,7 +2162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12957840" cy="10407240"/>
+          <a:ext cx="12952440" cy="10406880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3894,8 +2222,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="40.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="6" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="19" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="6" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="19" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="256" style="2" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="257" style="2" width="24.15"/>
   </cols>
@@ -4140,19 +2468,19 @@
   <dimension ref="A2:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="6.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="46.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="48.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="7" style="9" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="255" style="9" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="7" style="9" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="255" style="9" width="3.98"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4213,7 +2541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="80.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -4225,7 +2553,7 @@
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>24</v>
@@ -4233,35 +2561,35 @@
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>24</v>
@@ -4269,17 +2597,17 @@
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>24</v>
@@ -4287,17 +2615,17 @@
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>24</v>
@@ -4742,12 +3070,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="18" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="18" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="255" style="2" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="256" style="2" width="24.15"/>
   </cols>
@@ -4755,20 +3083,20 @@
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5225,8 +3553,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="87.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="33" width="18.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="32" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="6" style="32" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="6" style="32" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5662,10 +3990,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="70.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="32" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="32" width="9.13"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5694,17 +4022,17 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="2.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="100.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="13" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="20" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="13" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="20" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="257" style="2" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="2" width="24.15"/>
   </cols>
@@ -6160,7 +4488,7 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.71"/>

--- a/TerceiroPasso/GrupoSelecionado.xlsx
+++ b/TerceiroPasso/GrupoSelecionado.xlsx
@@ -130,7 +130,7 @@
     <t xml:space="preserve">1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Acessar o passo 2 com com um grupo de carro comum selecionado.</t>
+    <t xml:space="preserve">Acessar o passo 3 com com um grupo de carro comum selecionado.</t>
   </si>
   <si>
     <t xml:space="preserve">Nome do grupo selecionado; 
@@ -145,7 +145,7 @@
     <t xml:space="preserve">1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Acessar o passo 2 com com um grupo de carro comum selecionado. Dado que o grupo tenha várias imagens cadastradas</t>
+    <t xml:space="preserve">Acessar o passo 3 com com um grupo de carro comum selecionado. Dado que o grupo tenha várias imagens cadastradas</t>
   </si>
   <si>
     <t xml:space="preserve">Deve mostrar, ao contrário do grupo comum, um Carousel com as imagens dos grupos</t>
@@ -154,20 +154,20 @@
     <t xml:space="preserve">1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Acessar o passo 2 com com um grupo de carro fast selecionado.</t>
+    <t xml:space="preserve">Acessar o passo 3 com com um grupo de carro fast selecionado.</t>
   </si>
   <si>
     <t xml:space="preserve">Bandeira de identificação do Localiza Fast, para os grupos Fast;
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Acessar o passo 2 com com um grupo de carro sob confirmação selecionado.</t>
+    <t xml:space="preserve">Acessar o passo 3 com com um grupo de carro sob confirmação selecionado.</t>
   </si>
   <si>
     <t xml:space="preserve">Tooltip de "Sujeito a Disponibilidade" para grupos que não são free sale. Ao clicar nesse tooltip, exibir a mensagem "Confirmação em até 24h antes da retirada.";</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao acessar o passo 3, desevá ser apresentado abaixo das informações do grupo selecionado, um accordion com as características do veículo selecionado.</t>
+    <t xml:space="preserve">Ao acessar o passo 3, deverá ser apresentado abaixo das informações do grupo selecionado, um accordion com as características do veículo selecionado.</t>
   </si>
   <si>
     <t xml:space="preserve">Severá ser apresentado uma seção expansível com todas as informações provenientes do veículo selecionado, conforme o layout.</t>
@@ -2146,9 +2146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>579600</xdr:colOff>
+      <xdr:colOff>579240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2162,7 +2162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12952440" cy="10406880"/>
+          <a:ext cx="12947040" cy="10406520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2468,12 +2468,12 @@
   <dimension ref="A2:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="46.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="48.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="31.43"/>
@@ -2556,7 +2556,7 @@
         <v>36</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -2574,7 +2574,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -2592,7 +2592,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,7 +2610,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,7 +2628,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3070,7 +3070,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.29"/>
@@ -4023,7 +4023,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="2.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.29"/>
